--- a/static/data/linelist_20140701.xlsx
+++ b/static/data/linelist_20140701.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acori/Documents/workspace/early_epidemic_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4BD57A-40C1-A84C-9B54-40D10B3E5E57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC02086-96E9-724E-822A-9259711C1862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts_20140701" sheetId="1" r:id="rId1"/>
+    <sheet name="linelist_20140701" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,90 +25,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="173" uniqueCount="85">
-  <si>
-    <t>infector</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="796" uniqueCount="181">
   <si>
     <t>case_id</t>
   </si>
   <si>
-    <t>source</t>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>date_of_infection</t>
+  </si>
+  <si>
+    <t>date_of_onset</t>
+  </si>
+  <si>
+    <t>date_of_hospitalisation</t>
+  </si>
+  <si>
+    <t>date_of_outcome</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
   </si>
   <si>
     <t>d1fafd</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Military Hospital</t>
+  </si>
+  <si>
     <t>53371b</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Connaught Hospital</t>
+  </si>
+  <si>
+    <t>f5c3d8</t>
+  </si>
+  <si>
+    <t>Recover</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>f5c3d8</t>
+    <t>6c286a</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
   <si>
     <t>0f58c4</t>
   </si>
   <si>
+    <t>49731d</t>
+  </si>
+  <si>
+    <t>f9149b</t>
+  </si>
+  <si>
     <t>881bd4</t>
   </si>
   <si>
+    <t>Princess Christian Maternity Hospital (PCMH)</t>
+  </si>
+  <si>
+    <t>e66fa4</t>
+  </si>
+  <si>
+    <t>20b688</t>
+  </si>
+  <si>
+    <t>Rokupa Hospital</t>
+  </si>
+  <si>
+    <t>40ae5f</t>
+  </si>
+  <si>
+    <t>f547d6</t>
+  </si>
+  <si>
+    <t>f1f60f</t>
+  </si>
+  <si>
     <t>d58402</t>
   </si>
   <si>
-    <t>20b688</t>
-  </si>
-  <si>
     <t>d8a13d</t>
   </si>
   <si>
-    <t>funeral</t>
+    <t>a3c8b8</t>
   </si>
   <si>
     <t>2ae019</t>
   </si>
   <si>
-    <t>a3c8b8</t>
-  </si>
-  <si>
     <t>974bc1</t>
   </si>
   <si>
+    <t>6a9004</t>
+  </si>
+  <si>
     <t>72b905</t>
   </si>
   <si>
-    <t>40ae5f</t>
-  </si>
-  <si>
     <t>b8f2fd</t>
   </si>
   <si>
-    <t>f1f60f</t>
-  </si>
-  <si>
     <t>09e386</t>
   </si>
   <si>
-    <t>f9149b</t>
+    <t>8689b7</t>
   </si>
   <si>
     <t>6285c9</t>
   </si>
   <si>
-    <t>f547d6</t>
-  </si>
-  <si>
     <t>5fe599</t>
   </si>
   <si>
     <t>79ad06</t>
   </si>
   <si>
+    <t>Mitylira Hospital</t>
+  </si>
+  <si>
+    <t>9d4019</t>
+  </si>
+  <si>
+    <t>c43190</t>
+  </si>
+  <si>
+    <t>11f8ea</t>
+  </si>
+  <si>
     <t>dce5cc</t>
   </si>
   <si>
-    <t>11f8ea</t>
+    <t>d4ff47</t>
+  </si>
+  <si>
+    <t>b8812a</t>
+  </si>
+  <si>
+    <t>4b38b7</t>
   </si>
   <si>
     <t>f96aa5</t>
@@ -117,81 +198,165 @@
     <t>893f25</t>
   </si>
   <si>
+    <t>be99c8</t>
+  </si>
+  <si>
     <t>c29eb5</t>
   </si>
   <si>
+    <t>bc9ace</t>
+  </si>
+  <si>
+    <t>49d786</t>
+  </si>
+  <si>
+    <t>e7ee34</t>
+  </si>
+  <si>
+    <t>c4e706</t>
+  </si>
+  <si>
+    <t>76b97a</t>
+  </si>
+  <si>
+    <t>3f1aaf</t>
+  </si>
+  <si>
+    <t>5ed02c</t>
+  </si>
+  <si>
+    <t>e02f66</t>
+  </si>
+  <si>
     <t>bd8c0e</t>
   </si>
   <si>
-    <t>3f1aaf</t>
-  </si>
-  <si>
-    <t>e02f66</t>
-  </si>
-  <si>
-    <t>4b38b7</t>
+    <t>0445d8</t>
   </si>
   <si>
     <t>d0523a</t>
   </si>
   <si>
+    <t>47a5f5</t>
+  </si>
+  <si>
+    <t>4b9ead</t>
+  </si>
+  <si>
+    <t>dae8c7</t>
+  </si>
+  <si>
+    <t>9e0998</t>
+  </si>
+  <si>
+    <t>ac6fdf</t>
+  </si>
+  <si>
+    <t>566f9e</t>
+  </si>
+  <si>
+    <t>acf422</t>
+  </si>
+  <si>
+    <t>275cc7</t>
+  </si>
+  <si>
+    <t>56d39e</t>
+  </si>
+  <si>
+    <t>d2f586</t>
+  </si>
+  <si>
+    <t>07e3e8</t>
+  </si>
+  <si>
+    <t>ce9c02</t>
+  </si>
+  <si>
+    <t>133ee7</t>
+  </si>
+  <si>
+    <t>1a4ac9</t>
+  </si>
+  <si>
+    <t>7be92f</t>
+  </si>
+  <si>
+    <t>5387a2</t>
+  </si>
+  <si>
+    <t>96e309</t>
+  </si>
+  <si>
+    <t>db4b96</t>
+  </si>
+  <si>
     <t>1511c5</t>
   </si>
   <si>
-    <t>acf422</t>
-  </si>
-  <si>
-    <t>275cc7</t>
-  </si>
-  <si>
-    <t>07e3e8</t>
-  </si>
-  <si>
-    <t>76b97a</t>
-  </si>
-  <si>
-    <t>133ee7</t>
-  </si>
-  <si>
-    <t>bc9ace</t>
-  </si>
-  <si>
-    <t>96e309</t>
-  </si>
-  <si>
-    <t>db4b96</t>
-  </si>
-  <si>
     <t>80663c</t>
   </si>
   <si>
-    <t>c4e706</t>
-  </si>
-  <si>
-    <t>49d786</t>
+    <t>8a4580</t>
+  </si>
+  <si>
+    <t>dbebea</t>
+  </si>
+  <si>
+    <t>1d7c8a</t>
+  </si>
+  <si>
+    <t>dfdf88</t>
+  </si>
+  <si>
+    <t>ab034a</t>
   </si>
   <si>
     <t>be6c4b</t>
   </si>
   <si>
+    <t>3680d3</t>
+  </si>
+  <si>
+    <t>f393b4</t>
+  </si>
+  <si>
+    <t>30c98c</t>
+  </si>
+  <si>
+    <t>30574c</t>
+  </si>
+  <si>
     <t>5837cf</t>
   </si>
   <si>
-    <t>dae8c7</t>
+    <t>1389ca</t>
   </si>
   <si>
     <t>7e95d1</t>
   </si>
   <si>
-    <t>5387a2</t>
+    <t>788a99</t>
   </si>
   <si>
     <t>2b8773</t>
   </si>
   <si>
+    <t>9f6884</t>
+  </si>
+  <si>
     <t>e85785</t>
   </si>
   <si>
+    <t>2978ac</t>
+  </si>
+  <si>
+    <t>211b45</t>
+  </si>
+  <si>
+    <t>60f0c2</t>
+  </si>
+  <si>
     <t>fc05c1</t>
   </si>
   <si>
@@ -201,49 +366,136 @@
     <t>8f227d</t>
   </si>
   <si>
+    <t>50adde</t>
+  </si>
+  <si>
     <t>6fa4bf</t>
   </si>
   <si>
+    <t>a3c50c</t>
+  </si>
+  <si>
+    <t>d6f195</t>
+  </si>
+  <si>
+    <t>7b82a8</t>
+  </si>
+  <si>
+    <t>e0fb09</t>
+  </si>
+  <si>
     <t>9f5d3b</t>
   </si>
   <si>
+    <t>31b9f9</t>
+  </si>
+  <si>
+    <t>e61cb9</t>
+  </si>
+  <si>
+    <t>3002bc</t>
+  </si>
+  <si>
+    <t>37a6f6</t>
+  </si>
+  <si>
     <t>57a565</t>
   </si>
   <si>
-    <t>37a6f6</t>
+    <t>057e7a</t>
+  </si>
+  <si>
+    <t>4cff96</t>
+  </si>
+  <si>
+    <t>be502d</t>
+  </si>
+  <si>
+    <t>bab455</t>
+  </si>
+  <si>
+    <t>9ae2d7</t>
   </si>
   <si>
     <t>fc15ef</t>
   </si>
   <si>
-    <t>9f6884</t>
-  </si>
-  <si>
     <t>2eaa9a</t>
   </si>
   <si>
+    <t>e33327</t>
+  </si>
+  <si>
+    <t>a48f5d</t>
+  </si>
+  <si>
+    <t>a6c614</t>
+  </si>
+  <si>
+    <t>8e104d</t>
+  </si>
+  <si>
     <t>3ef3d9</t>
   </si>
   <si>
-    <t>e61cb9</t>
+    <t>c15f36</t>
+  </si>
+  <si>
+    <t>c97dd9</t>
+  </si>
+  <si>
+    <t>bbfa93</t>
   </si>
   <si>
     <t>02d8fd</t>
   </si>
   <si>
-    <t>057e7a</t>
+    <t>af9f9a</t>
+  </si>
+  <si>
+    <t>01fcc4</t>
+  </si>
+  <si>
+    <t>2ebf95</t>
+  </si>
+  <si>
+    <t>88eff2</t>
   </si>
   <si>
     <t>c36eb4</t>
   </si>
   <si>
+    <t>47ebbc</t>
+  </si>
+  <si>
     <t>db5a62</t>
   </si>
   <si>
+    <t>bd14fc</t>
+  </si>
+  <si>
+    <t>88a4e0</t>
+  </si>
+  <si>
+    <t>542d07</t>
+  </si>
+  <si>
+    <t>f50e8a</t>
+  </si>
+  <si>
+    <t>70baad</t>
+  </si>
+  <si>
+    <t>d36a83</t>
+  </si>
+  <si>
     <t>9e74c4</t>
   </si>
   <si>
-    <t>a6c614</t>
+    <t>3a7673</t>
+  </si>
+  <si>
+    <t>7b7f62</t>
   </si>
   <si>
     <t>e4bee8</t>
@@ -255,31 +507,67 @@
     <t>0082bf</t>
   </si>
   <si>
-    <t>30c98c</t>
-  </si>
-  <si>
     <t>daddbc</t>
   </si>
   <si>
+    <t>589e9f</t>
+  </si>
+  <si>
+    <t>341efa</t>
+  </si>
+  <si>
+    <t>f86ce2</t>
+  </si>
+  <si>
+    <t>2afc42</t>
+  </si>
+  <si>
     <t>cd2dd3</t>
   </si>
   <si>
-    <t>dbebea</t>
+    <t>3cf6cf</t>
   </si>
   <si>
     <t>df4951</t>
   </si>
   <si>
+    <t>7f5a01</t>
+  </si>
+  <si>
     <t>920c1b</t>
   </si>
   <si>
-    <t>8e104d</t>
+    <t>6c2783</t>
+  </si>
+  <si>
+    <t>61cf79</t>
   </si>
   <si>
     <t>ddddee</t>
   </si>
   <si>
+    <t>e33ec5</t>
+  </si>
+  <si>
+    <t>c9e790</t>
+  </si>
+  <si>
+    <t>99e8fa</t>
+  </si>
+  <si>
+    <t>af1c1f</t>
+  </si>
+  <si>
     <t>acbbf6</t>
+  </si>
+  <si>
+    <t>ea7119</t>
+  </si>
+  <si>
+    <t>c9bb92</t>
+  </si>
+  <si>
+    <t>fdeb61</t>
   </si>
 </sst>
 </file>
@@ -763,8 +1051,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1121,13 +1410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,665 +1426,5944 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="d">
+        <v>2014-04-07</v>
+      </c>
+      <c r="E2" s="1" t="d">
+        <v>2014-04-17</v>
+      </c>
+      <c r="F2" s="1" t="d">
+        <v>2014-04-19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>-13.217990646098</v>
+      </c>
+      <c r="K2">
+        <v>8.4735140055159892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="d">
+        <v>2014-04-09</v>
+      </c>
+      <c r="D3" s="1" t="d">
+        <v>2014-04-15</v>
+      </c>
+      <c r="E3" s="1" t="d">
+        <v>2014-04-20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>-13.2149052395664</v>
+      </c>
+      <c r="K3">
+        <v>8.4649265225177697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="d">
+        <v>2014-04-18</v>
+      </c>
+      <c r="D4" s="1" t="d">
+        <v>2014-04-21</v>
+      </c>
+      <c r="E4" s="1" t="d">
+        <v>2014-04-25</v>
+      </c>
+      <c r="F4" s="1" t="d">
+        <v>2014-04-30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>-13.2280410276091</v>
+      </c>
+      <c r="K4">
+        <v>8.4833555090832693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="d">
+        <v>2014-04-27</v>
+      </c>
+      <c r="E5" s="1" t="d">
+        <v>2014-04-27</v>
+      </c>
+      <c r="F5" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>-13.2311229156957</v>
+      </c>
+      <c r="K5">
+        <v>8.46477606739351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="d">
+        <v>2014-04-22</v>
+      </c>
+      <c r="D6" s="1" t="d">
+        <v>2014-04-26</v>
+      </c>
+      <c r="E6" s="1" t="d">
+        <v>2014-04-29</v>
+      </c>
+      <c r="F6" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>-13.2101641430217</v>
+      </c>
+      <c r="K6">
+        <v>8.4521426833505604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="d">
+        <v>2014-03-19</v>
+      </c>
+      <c r="D7" s="1" t="d">
+        <v>2014-04-25</v>
+      </c>
+      <c r="E7" s="1" t="d">
+        <v>2014-05-02</v>
+      </c>
+      <c r="F7" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>-13.2344265094994</v>
+      </c>
+      <c r="K7">
+        <v>8.4685723995842501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="d">
+        <v>2014-05-03</v>
+      </c>
+      <c r="E8" s="1" t="d">
+        <v>2014-05-04</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-13.248158831254299</v>
+      </c>
+      <c r="K8">
+        <v>8.4646816514367504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="d">
+        <v>2014-04-26</v>
+      </c>
+      <c r="D9" s="1" t="d">
+        <v>2014-05-01</v>
+      </c>
+      <c r="E9" s="1" t="d">
+        <v>2014-05-05</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>-13.2169433423126</v>
+      </c>
+      <c r="K9">
+        <v>8.4853584252150291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="d">
+        <v>2014-04-21</v>
+      </c>
+      <c r="E10" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="F10" s="1" t="d">
+        <v>2014-05-12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>-13.2612684289806</v>
+      </c>
+      <c r="K10">
+        <v>8.4646620502736294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="d">
+        <v>2014-05-05</v>
+      </c>
+      <c r="E11" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="F11" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>-13.2330769474001</v>
+      </c>
+      <c r="K11">
+        <v>8.4600298414136397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" s="1" t="d">
+        <v>2014-05-04</v>
+      </c>
+      <c r="D12" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="E12" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>-13.262068330873699</v>
+      </c>
+      <c r="K12">
+        <v>8.4861690441045994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="d">
+        <v>2014-05-02</v>
+      </c>
+      <c r="D13" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="E13" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="F13" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>-13.219331817855499</v>
+      </c>
+      <c r="K13">
+        <v>8.4762810528991004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="d">
+        <v>2014-05-04</v>
+      </c>
+      <c r="E14" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="F14" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>-13.2189142321497</v>
+      </c>
+      <c r="K14">
+        <v>8.4820587897712194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="d">
+        <v>2014-04-23</v>
+      </c>
+      <c r="D15" s="1" t="d">
+        <v>2014-05-01</v>
+      </c>
+      <c r="E15" s="1" t="d">
+        <v>2014-05-10</v>
+      </c>
+      <c r="F15" s="1" t="d">
+        <v>2014-05-11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>-13.226333236658601</v>
+      </c>
+      <c r="K15">
+        <v>8.4727392691213907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="D16" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="E16" s="1" t="d">
+        <v>2014-05-10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>-13.2354719577436</v>
+      </c>
+      <c r="K16">
+        <v>8.4627682729487006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="D17" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="E17" s="1" t="d">
+        <v>2014-05-10</v>
+      </c>
+      <c r="F17" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>-13.223193191457201</v>
+      </c>
+      <c r="K17">
+        <v>8.4732512826969693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="E18" s="1" t="d">
+        <v>2014-05-11</v>
+      </c>
+      <c r="F18" s="1" t="d">
+        <v>2014-04-30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>-13.268094079567099</v>
+      </c>
+      <c r="K18">
+        <v>8.4525060806120997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="d">
+        <v>2014-05-05</v>
+      </c>
+      <c r="D19" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="E19" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="F19" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>-13.261299444036601</v>
+      </c>
+      <c r="K19">
+        <v>8.4871096341142405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="D20" s="1" t="d">
+        <v>2014-05-10</v>
+      </c>
+      <c r="E20" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="F20" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>-13.235439953848299</v>
+      </c>
+      <c r="K20">
+        <v>8.4715316735656003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="D21" s="1" t="d">
+        <v>2014-05-12</v>
+      </c>
+      <c r="E21" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>-13.212263172985301</v>
+      </c>
+      <c r="K21">
+        <v>8.4683844189574806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C22" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="D22" s="1" t="d">
+        <v>2014-05-12</v>
+      </c>
+      <c r="E22" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="F22" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>-13.2403686796131</v>
+      </c>
+      <c r="K22">
+        <v>8.4543772805614701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="D23" s="1" t="d">
+        <v>2014-05-11</v>
+      </c>
+      <c r="E23" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="F23" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>-13.217580773259799</v>
+      </c>
+      <c r="K23">
+        <v>8.4786299722342999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="E24" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="F24" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>-13.2152339775486</v>
+      </c>
+      <c r="K24">
+        <v>8.4517185585646502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="d">
+        <v>2014-05-04</v>
+      </c>
+      <c r="D25" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="E25" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="F25" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>-13.2205862656383</v>
+      </c>
+      <c r="K25">
+        <v>8.4505691964425402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>865581</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="D26" s="1" t="d">
+        <v>2014-05-12</v>
+      </c>
+      <c r="E26" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>-13.2485268641431</v>
+      </c>
+      <c r="K26">
+        <v>8.4856096876452902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="D27" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="E27" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>-13.2157351064963</v>
+      </c>
+      <c r="K27">
+        <v>8.4689729510092402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="d">
+        <v>2014-05-03</v>
+      </c>
+      <c r="D28" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="E28" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="F28" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28">
+        <v>-13.2243136144697</v>
+      </c>
+      <c r="K28">
+        <v>8.4706862286439204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="d">
+        <v>2014-05-13</v>
+      </c>
+      <c r="E29" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="F29" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>-13.267371225831701</v>
+      </c>
+      <c r="K29">
+        <v>8.4610983452360902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="d">
+        <v>2014-04-27</v>
+      </c>
+      <c r="D30" s="1" t="d">
+        <v>2014-05-06</v>
+      </c>
+      <c r="E30" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="F30" s="1" t="d">
+        <v>2014-04-26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30">
+        <v>-13.2668394292923</v>
+      </c>
+      <c r="K30">
+        <v>8.4743555978477794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>900021</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="D31" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="E31" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="F31" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>-13.2133023080993</v>
+      </c>
+      <c r="K31">
+        <v>8.4765077474377204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>102363</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="E32" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="F32" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>-13.2207535385608</v>
+      </c>
+      <c r="K32">
+        <v>8.4629108670485707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="E33" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="F33" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>-13.212910703914</v>
+      </c>
+      <c r="K33">
+        <v>8.4648170059681895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="d">
+        <v>2014-05-03</v>
+      </c>
+      <c r="D34" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="E34" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="F34" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>-13.220846085783201</v>
+      </c>
+      <c r="K34">
+        <v>8.4836788629995805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C35" s="1" t="d">
+        <v>2014-05-14</v>
+      </c>
+      <c r="D35" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="E35" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="F35" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>-13.2518013549844</v>
+      </c>
+      <c r="K35">
+        <v>8.4719756110047904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="d">
+        <v>2014-05-04</v>
+      </c>
+      <c r="D36" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="E36" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>-13.2363711169728</v>
+      </c>
+      <c r="K36">
+        <v>8.4754761613650995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="D37" s="1" t="d">
+        <v>2014-05-19</v>
+      </c>
+      <c r="E37" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="F37" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>-13.222795518335699</v>
+      </c>
+      <c r="K37">
+        <v>8.4627214404710198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="D38" s="1" t="d">
+        <v>2014-05-19</v>
+      </c>
+      <c r="E38" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="F38" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38">
+        <v>-13.2523649449559</v>
+      </c>
+      <c r="K38">
+        <v>8.4601071493071007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="D39" s="1" t="d">
+        <v>2014-05-21</v>
+      </c>
+      <c r="E39" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="F39" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>-13.222863891244099</v>
+      </c>
+      <c r="K39">
+        <v>8.4608237749092297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="d">
+        <v>2014-05-03</v>
+      </c>
+      <c r="D40" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="E40" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="F40" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>-13.222625321098</v>
+      </c>
+      <c r="K40">
+        <v>8.4618306260072806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="d">
+        <v>2014-05-08</v>
+      </c>
+      <c r="D41" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="E41" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="F41" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>-13.216627508702301</v>
+      </c>
+      <c r="K41">
+        <v>8.4886213986049004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="d">
+        <v>2014-05-07</v>
+      </c>
+      <c r="D42" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="E42" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="F42" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>-13.2280926526392</v>
+      </c>
+      <c r="K42">
+        <v>8.4789526576869392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="E43" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="F43" s="1" t="d">
+        <v>2014-05-11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>-13.213937368215401</v>
+      </c>
+      <c r="K43">
+        <v>8.4883907850328804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="d">
+        <v>2014-05-21</v>
+      </c>
+      <c r="E44" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="F44" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44">
+        <v>-13.2380062901361</v>
+      </c>
+      <c r="K44">
+        <v>8.4726991466136603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>865581</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>900021</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32">
-        <v>968888</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33">
-        <v>369449</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>102363</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>369449</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
       <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="E45" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="F45" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>-13.2143394209926</v>
+      </c>
+      <c r="K45">
+        <v>8.4893207259606704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="d">
+        <v>2014-05-11</v>
+      </c>
+      <c r="D46" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="E46" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="F46" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>-13.21067093582</v>
+      </c>
+      <c r="K46">
+        <v>8.4813002820750594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="D47" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="E47" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="F47" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>-13.2465523307905</v>
+      </c>
+      <c r="K47">
+        <v>8.4848585474777494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="E48" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>-13.2311214693009</v>
+      </c>
+      <c r="K48">
+        <v>8.4789021878816708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="d">
+        <v>2014-05-18</v>
+      </c>
+      <c r="D49" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="E49" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="F49" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>-13.2599196027204</v>
+      </c>
+      <c r="K49">
+        <v>8.45436259178895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="E50" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="F50" s="1" t="d">
+        <v>2014-05-09</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>-13.259728682248801</v>
+      </c>
+      <c r="K50">
+        <v>8.4516961720441302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="d">
+        <v>2014-05-19</v>
+      </c>
+      <c r="E51" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="F51" s="1" t="d">
+        <v>2014-06-04</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>-13.261132100197599</v>
+      </c>
+      <c r="K51">
+        <v>8.4633512481166804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="D52" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="E52" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="F52" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>-13.256562897711101</v>
+      </c>
+      <c r="K52">
+        <v>8.4837924801634692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="d">
+        <v>2014-05-03</v>
+      </c>
+      <c r="D53" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="E53" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="F53" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>-13.262434315479</v>
+      </c>
+      <c r="K53">
+        <v>8.4850504403980995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="d">
+        <v>2014-05-21</v>
+      </c>
+      <c r="E54" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="F54" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>-13.228564405369299</v>
+      </c>
+      <c r="K54">
+        <v>8.4778517950982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="D55" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="E55" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="F55" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>-13.2197320896877</v>
+      </c>
+      <c r="K55">
+        <v>8.4485219254853394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="E56" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="F56" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>-13.209535244886499</v>
+      </c>
+      <c r="K56">
+        <v>8.4810059346710691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="D57" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="E57" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="F57" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>-13.2497895934567</v>
+      </c>
+      <c r="K57">
+        <v>8.4797030874116697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="D58" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E58" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="F58" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>-13.2129350506235</v>
+      </c>
+      <c r="K58">
+        <v>8.4833147116637093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="D59" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E59" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="F59" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59">
+        <v>-13.2688968279886</v>
+      </c>
+      <c r="K59">
+        <v>8.4784597364855294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C60" s="1" t="d">
+        <v>2014-05-24</v>
+      </c>
+      <c r="D60" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E60" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="F60" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>-13.236939378245101</v>
+      </c>
+      <c r="K60">
+        <v>8.4691611386959096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E61" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61">
+        <v>-13.211515748944599</v>
+      </c>
+      <c r="K61">
+        <v>8.4509440162431808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="E62" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>-13.258754889101599</v>
+      </c>
+      <c r="K62">
+        <v>8.4581560406714509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="D63" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E63" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="F63" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>-13.2331547837254</v>
+      </c>
+      <c r="K63">
+        <v>8.4627293146264595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="D64" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E64" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="F64" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>-13.2243703238737</v>
+      </c>
+      <c r="K64">
+        <v>8.4702478971392399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="D65" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E65" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="F65" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <v>-13.223020811554701</v>
+      </c>
+      <c r="K65">
+        <v>8.4614278181604092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E66" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="F66" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>-13.260468493972599</v>
+      </c>
+      <c r="K66">
+        <v>8.4542147987898897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="E67" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>-13.218039759151701</v>
+      </c>
+      <c r="K67">
+        <v>8.4489706990289193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="D68" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="E68" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="F68" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>-13.2628435102304</v>
+      </c>
+      <c r="K68">
+        <v>8.4552416097525303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="d">
+        <v>2014-05-22</v>
+      </c>
+      <c r="D69" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="E69" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69">
+        <v>-13.232134276722499</v>
+      </c>
+      <c r="K69">
+        <v>8.4781963358495407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="D70" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="E70" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>-13.248633850792</v>
+      </c>
+      <c r="K70">
+        <v>8.4778746413144006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="D71" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="E71" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="F71" s="1" t="d">
+        <v>2014-06-13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>-13.2288326440567</v>
+      </c>
+      <c r="K71">
+        <v>8.4700308737973895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="d">
+        <v>2014-05-19</v>
+      </c>
+      <c r="D72" s="1" t="d">
+        <v>2014-05-26</v>
+      </c>
+      <c r="E72" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>-13.2505702703486</v>
+      </c>
+      <c r="K72">
+        <v>8.4872056662244209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="E73" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73">
+        <v>-13.222200270095801</v>
+      </c>
+      <c r="K73">
+        <v>8.46388925014565</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>968888</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="D74" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E74" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="F74" s="1" t="d">
+        <v>2014-06-04</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74">
+        <v>-13.2196619126088</v>
+      </c>
+      <c r="K74">
+        <v>8.4775775298649503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="E75" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="F75" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>-13.2164705932244</v>
+      </c>
+      <c r="K75">
+        <v>8.4866637728918803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>369449</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="D76" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="E76" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="F76" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76">
+        <v>-13.2320975453153</v>
+      </c>
+      <c r="K76">
+        <v>8.4614436753427107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="E77" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="F77" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77">
+        <v>-13.2303592774298</v>
+      </c>
+      <c r="K77">
+        <v>8.4784372768110199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="D78" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="E78" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>-13.2162202115761</v>
+      </c>
+      <c r="K78">
+        <v>8.4630672647640903</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="E79" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="F79" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>-13.2257125599458</v>
+      </c>
+      <c r="K79">
+        <v>8.4709691043663202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="d">
+        <v>2014-05-23</v>
+      </c>
+      <c r="D80" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E80" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="F80" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80">
+        <v>-13.216071588584599</v>
+      </c>
+      <c r="K80">
+        <v>8.4892790181432805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="E81" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="F81" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>-13.260255220601699</v>
+      </c>
+      <c r="K81">
+        <v>8.4541324958265793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="E82" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="F82" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <v>-13.2225511595637</v>
+      </c>
+      <c r="K82">
+        <v>8.4619125921777396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="E83" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="F83" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>-13.2393862117589</v>
+      </c>
+      <c r="K83">
+        <v>8.4867722764061497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="D84" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="E84" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F84" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>-13.2117661795613</v>
+      </c>
+      <c r="K84">
+        <v>8.4673711873054796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="d">
+        <v>2014-05-05</v>
+      </c>
+      <c r="D85" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="E85" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85">
+        <v>-13.2166941768351</v>
+      </c>
+      <c r="K85">
+        <v>8.4874314780758304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="E86" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F86" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>-13.2572163655863</v>
+      </c>
+      <c r="K86">
+        <v>8.4729232764350595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="d">
+        <v>2014-05-25</v>
+      </c>
+      <c r="D87" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="E87" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F87" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <v>-13.2130676460927</v>
+      </c>
+      <c r="K87">
+        <v>8.4778455407880795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="D88" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="E88" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F88" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>-13.2128924575825</v>
+      </c>
+      <c r="K88">
+        <v>8.4685215626717394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="D89" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="E89" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F89" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89">
+        <v>-13.214947415990199</v>
+      </c>
+      <c r="K89">
+        <v>8.4519298829217302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="D90" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="E90" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="F90" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>-13.224205865780201</v>
+      </c>
+      <c r="K90">
+        <v>8.4866346768709402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="d">
+        <v>2014-05-27</v>
+      </c>
+      <c r="D91" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="E91" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="F91" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91">
+        <v>-13.2343655285518</v>
+      </c>
+      <c r="K91">
+        <v>8.47939496892986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="D92" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="E92" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="F92" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>-13.2206286746001</v>
+      </c>
+      <c r="K92">
+        <v>8.4840163016513799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="E93" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="F93" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93">
+        <v>-13.2128665324162</v>
+      </c>
+      <c r="K93">
+        <v>8.4589893524042896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="d">
+        <v>2014-06-04</v>
+      </c>
+      <c r="D94" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="E94" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="F94" s="1" t="d">
+        <v>2014-05-30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>-13.2270219251255</v>
+      </c>
+      <c r="K94">
+        <v>8.4774544098173195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1" t="d">
+        <v>2014-05-15</v>
+      </c>
+      <c r="D95" s="1" t="d">
+        <v>2014-06-08</v>
+      </c>
+      <c r="E95" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="F95" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <v>-13.2133487439158</v>
+      </c>
+      <c r="K95">
+        <v>8.4664905433910693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="d">
+        <v>2014-05-17</v>
+      </c>
+      <c r="D96" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="E96" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="F96" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96">
+        <v>-13.249259626622599</v>
+      </c>
+      <c r="K96">
+        <v>8.4860939777772106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1" t="d">
+        <v>2014-05-16</v>
+      </c>
+      <c r="D97" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="E97" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="F97" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97">
+        <v>-13.218096352945199</v>
+      </c>
+      <c r="K97">
+        <v>8.4875335467599609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="E98" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="F98" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98">
+        <v>-13.220290675191</v>
+      </c>
+      <c r="K98">
+        <v>8.4652445886431806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="D99" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="E99" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <v>-13.2381754136412</v>
+      </c>
+      <c r="K99">
+        <v>8.46964062310321</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="D100" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="E100" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="F100" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100">
+        <v>-13.262495521528299</v>
+      </c>
+      <c r="K100">
+        <v>8.4649547948404091</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="E101" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101">
+        <v>-13.2183252570302</v>
+      </c>
+      <c r="K101">
+        <v>8.4796772501182804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" s="1" t="d">
+        <v>2014-05-20</v>
+      </c>
+      <c r="D102" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="E102" s="1" t="d">
+        <v>2014-06-13</v>
+      </c>
+      <c r="F102" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102">
+        <v>-13.208403403575501</v>
+      </c>
+      <c r="K102">
+        <v>8.4631798161022296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="E103" s="1" t="d">
+        <v>2014-06-13</v>
+      </c>
+      <c r="F103" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>-13.2072248434984</v>
+      </c>
+      <c r="K103">
+        <v>8.45830747403995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="D104" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="E104" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104">
+        <v>-13.2576952815319</v>
+      </c>
+      <c r="K104">
+        <v>8.4534412290058896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="d">
+        <v>2014-06-03</v>
+      </c>
+      <c r="D105" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="E105" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105">
+        <v>-13.253309160195901</v>
+      </c>
+      <c r="K105">
+        <v>8.4581356224689603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="E106" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="F106" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106">
+        <v>-13.238728729960499</v>
+      </c>
+      <c r="K106">
+        <v>8.4704691043212907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="E107" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107">
+        <v>-13.208887935914699</v>
+      </c>
+      <c r="K107">
+        <v>8.4637678543134793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="E108" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="F108" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108">
+        <v>-13.239768124315001</v>
+      </c>
+      <c r="K108">
+        <v>8.4553745492669403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="D109" s="1" t="d">
+        <v>2014-06-13</v>
+      </c>
+      <c r="E109" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109">
+        <v>-13.253989309477999</v>
+      </c>
+      <c r="K109">
+        <v>8.4583712534084405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="d">
+        <v>2014-06-04</v>
+      </c>
+      <c r="D110" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="E110" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110">
+        <v>-13.2180326141688</v>
+      </c>
+      <c r="K110">
+        <v>8.4715553560801808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>7.0000000000000004E+86</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="D111" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="E111" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="F111" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>-13.2612675039506</v>
+      </c>
+      <c r="K111">
+        <v>8.4634216887583396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="D112" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="E112" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="F112" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112">
+        <v>-13.217651519705999</v>
+      </c>
+      <c r="K112">
+        <v>8.4623680433487198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="D113" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="E113" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="F113" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113">
+        <v>-13.2535215623253</v>
+      </c>
+      <c r="K113">
+        <v>8.4588488072517691</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="E114" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="F114" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114">
+        <v>-13.237202722001401</v>
+      </c>
+      <c r="K114">
+        <v>8.4695611913694595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="D115" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="E115" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115">
+        <v>-13.262510695710301</v>
+      </c>
+      <c r="K115">
+        <v>8.4794001484024992</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="D116" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="E116" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116">
+        <v>-13.2385127873491</v>
+      </c>
+      <c r="K116">
+        <v>8.4776170551250907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="d">
+        <v>2014-06-07</v>
+      </c>
+      <c r="D117" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="E117" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117">
+        <v>-13.209391925612</v>
+      </c>
+      <c r="K117">
+        <v>8.47570184950483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>528572</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="d">
+        <v>2014-05-31</v>
+      </c>
+      <c r="D118" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="E118" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>-13.2262837664769</v>
+      </c>
+      <c r="K118">
+        <v>8.4865578026232704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="D119" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="E119" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="F119" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119">
+        <v>-13.212657327759599</v>
+      </c>
+      <c r="K119">
+        <v>8.4657768466012904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="E120" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="F120" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>-13.2099204722642</v>
+      </c>
+      <c r="K120">
+        <v>8.47683179920611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="d">
+        <v>2014-06-05</v>
+      </c>
+      <c r="D121" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="E121" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="F121" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121">
+        <v>-13.2190654487695</v>
+      </c>
+      <c r="K121">
+        <v>8.4773764097565891</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="E122" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="F122" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <v>-13.2159288644661</v>
+      </c>
+      <c r="K122">
+        <v>8.4844016384397296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="D123" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="E123" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123">
+        <v>-13.246797325633</v>
+      </c>
+      <c r="K123">
+        <v>8.4847243408173192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="E124" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="F124" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <v>-13.2189533374241</v>
+      </c>
+      <c r="K124">
+        <v>8.4513629136872197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="E125" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>-13.2243437095992</v>
+      </c>
+      <c r="K125">
+        <v>8.4714513414747401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1" t="d">
+        <v>2014-06-09</v>
+      </c>
+      <c r="D126" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="E126" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="F126" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126">
+        <v>-13.215727881489901</v>
+      </c>
+      <c r="K126">
+        <v>8.4777994687897191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="D127" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E127" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="F127" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>-13.2124311244169</v>
+      </c>
+      <c r="K127">
+        <v>8.4534409955214596</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E128" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128">
+        <v>-13.2371313571269</v>
+      </c>
+      <c r="K128">
+        <v>8.4877754480949097</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="E129" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129">
+        <v>-13.233597480710801</v>
+      </c>
+      <c r="K129">
+        <v>8.4651984587338003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="E130" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="F130" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>-13.2265780018024</v>
+      </c>
+      <c r="K130">
+        <v>8.4867668056044199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E131" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="F131" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>27</v>
+      </c>
+      <c r="J131">
+        <v>-13.219557888526101</v>
+      </c>
+      <c r="K131">
+        <v>8.4621083282474494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="D132" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E132" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="F132" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>-13.2619688324425</v>
+      </c>
+      <c r="K132">
+        <v>8.4847585521822104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="d">
+        <v>2014-06-14</v>
+      </c>
+      <c r="E133" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="F133" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>-13.2382407542596</v>
+      </c>
+      <c r="K133">
+        <v>8.4775241744951604</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="D134" s="1" t="d">
+        <v>2014-06-19</v>
+      </c>
+      <c r="E134" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="F134" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="G134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134">
+        <v>-13.237128159707</v>
+      </c>
+      <c r="K134">
+        <v>8.4741990765314696</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1" t="d">
+        <v>2014-06-04</v>
+      </c>
+      <c r="D135" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E135" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="F135" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>-13.2322364148998</v>
+      </c>
+      <c r="K135">
+        <v>8.4772784651913202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>922012</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E136" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136">
+        <v>-13.215562707519499</v>
+      </c>
+      <c r="K136">
+        <v>8.4635815347086503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="E137" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="F137" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137">
+        <v>-13.2093099826158</v>
+      </c>
+      <c r="K137">
+        <v>8.4541589080288393</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="D138" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="E138" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="F138" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>-13.262893451197099</v>
+      </c>
+      <c r="K138">
+        <v>8.4647959292272699</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="E139" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="F139" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139">
+        <v>-13.233608707955099</v>
+      </c>
+      <c r="K139">
+        <v>8.4780484068536293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>821030</v>
       </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="1" t="d">
+        <v>2014-06-16</v>
+      </c>
+      <c r="E140" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140">
+        <v>-13.2189360704491</v>
+      </c>
+      <c r="K140">
+        <v>8.48497366928361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="E141" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>-13.233643134082101</v>
+      </c>
+      <c r="K141">
+        <v>8.47328354572271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="E142" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="F142" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142">
+        <v>-13.210194799550999</v>
+      </c>
+      <c r="K142">
+        <v>8.4759381443184392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="D143" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="E143" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>27</v>
+      </c>
+      <c r="J143">
+        <v>-13.211637200578201</v>
+      </c>
+      <c r="K143">
+        <v>8.4708451975319292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="E144" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="F144" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144">
+        <v>-13.214221431449999</v>
+      </c>
+      <c r="K144">
+        <v>8.4852803419577896</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" s="1" t="d">
+        <v>2014-06-01</v>
+      </c>
+      <c r="D145" s="1" t="d">
+        <v>2014-06-15</v>
+      </c>
+      <c r="E145" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="F145" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145">
+        <v>-13.216095964769201</v>
+      </c>
+      <c r="K145">
+        <v>8.4530797629716492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="D146" s="1" t="d">
+        <v>2014-06-22</v>
+      </c>
+      <c r="E146" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146">
+        <v>-13.229923489408501</v>
+      </c>
+      <c r="K146">
+        <v>8.4784709401751606</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="D147" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="E147" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="F147" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>-13.213145745853399</v>
+      </c>
+      <c r="K147">
+        <v>8.4639773370323503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="D148" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="E148" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="F148" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148">
+        <v>-13.2114604420238</v>
+      </c>
+      <c r="K148">
+        <v>8.4664498525436809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="D149" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="E149" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149">
+        <v>-13.224884407401101</v>
+      </c>
+      <c r="K149">
+        <v>8.4856065548586503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150">
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="d">
+        <v>2014-06-11</v>
+      </c>
+      <c r="D150" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E150" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="F150" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150">
+        <v>-13.208383576186501</v>
+      </c>
+      <c r="K150">
+        <v>8.4632032500736294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E151" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="F151" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151">
+        <v>-13.260516912117099</v>
+      </c>
+      <c r="K151">
+        <v>8.4562327469279008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="E152" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152">
+        <v>-13.2289363806984</v>
+      </c>
+      <c r="K152">
+        <v>8.4688690367858293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="E153" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153">
+        <v>-13.230116509089701</v>
+      </c>
+      <c r="K153">
+        <v>8.4818766458110506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+      <c r="C154" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="D154" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="E154" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154">
+        <v>-13.2395544609828</v>
+      </c>
+      <c r="K154">
+        <v>8.47601368595849</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" s="1" t="d">
+        <v>2014-06-21</v>
+      </c>
+      <c r="D155" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E155" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F155" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+      <c r="J155">
+        <v>-13.2266651863277</v>
+      </c>
+      <c r="K155">
+        <v>8.4731040677142193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1" t="d">
+        <v>2014-06-02</v>
+      </c>
+      <c r="D156" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E156" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>-13.2384499801949</v>
+      </c>
+      <c r="K156">
+        <v>8.4766559674958604</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="D157" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="E157" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+      <c r="J157">
+        <v>-13.2339681355349</v>
+      </c>
+      <c r="K157">
+        <v>8.4695753039586705</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C158" s="1" t="d">
+        <v>2014-05-28</v>
+      </c>
+      <c r="D158" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="E158" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158">
+        <v>-13.2143944706215</v>
+      </c>
+      <c r="K158">
+        <v>8.4537917163031295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>528572</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C159" s="1" t="d">
+        <v>2014-05-29</v>
+      </c>
+      <c r="D159" s="1" t="d">
+        <v>2014-06-06</v>
+      </c>
+      <c r="E159" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="F159" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="G159" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159">
+        <v>-13.2195944883926</v>
+      </c>
+      <c r="K159">
+        <v>8.4490947561618697</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="E160" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+      <c r="J160">
+        <v>-13.2543772004967</v>
+      </c>
+      <c r="K160">
+        <v>8.4735495531727096</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1" t="d">
+        <v>2014-06-18</v>
+      </c>
+      <c r="D161" s="1" t="d">
+        <v>2014-06-26</v>
+      </c>
+      <c r="E161" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161">
+        <v>-13.2535640411465</v>
+      </c>
+      <c r="K161">
+        <v>8.4595735207811398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E162" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162">
+        <v>-13.214273553604</v>
+      </c>
+      <c r="K162">
+        <v>8.4555615679204408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>894000000</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" s="1" t="d">
+        <v>2014-06-10</v>
+      </c>
+      <c r="D163" s="1" t="d">
+        <v>2014-06-25</v>
+      </c>
+      <c r="E163" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163">
+        <v>-13.218496247563699</v>
+      </c>
+      <c r="K163">
+        <v>8.4791028283049705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1" t="d">
+        <v>2014-06-12</v>
+      </c>
+      <c r="D164" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="E164" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+      <c r="J164">
+        <v>-13.234380400079701</v>
+      </c>
+      <c r="K164">
+        <v>8.4690163873149693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="D165" s="1" t="d">
+        <v>2014-06-28</v>
+      </c>
+      <c r="E165" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>-13.2250089377786</v>
+      </c>
+      <c r="K165">
+        <v>8.4740488951154394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="E166" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="F166" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>-13.2338585724463</v>
+      </c>
+      <c r="K166">
+        <v>8.4795547551985795</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1" t="d">
+        <v>2014-06-20</v>
+      </c>
+      <c r="D167" s="1" t="d">
+        <v>2014-06-24</v>
+      </c>
+      <c r="E167" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167">
+        <v>-13.2125483775873</v>
+      </c>
+      <c r="K167">
+        <v>8.4687359210784106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1" t="d">
+        <v>2014-06-23</v>
+      </c>
+      <c r="D168" s="1" t="d">
+        <v>2014-06-27</v>
+      </c>
+      <c r="E168" s="1" t="d">
+        <v>2014-06-30</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <v>-13.210760287604501</v>
+      </c>
+      <c r="K168">
+        <v>8.4661558176700407</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>528572</v>
-      </c>
-      <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="1" t="d">
+        <v>2014-06-17</v>
+      </c>
+      <c r="E169" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>-13.2336862581509</v>
+      </c>
+      <c r="K169">
+        <v>8.4771339414058797</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1">
-        <v>894000000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="1" t="d">
+        <v>2014-06-29</v>
+      </c>
+      <c r="E170" s="1" t="d">
+        <v>2014-07-01</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>-13.2578297469246</v>
+      </c>
+      <c r="K170">
+        <v>8.4860671894166195</v>
       </c>
     </row>
   </sheetData>
